--- a/data/pilot/pilotDemoDf.xlsx
+++ b/data/pilot/pilotDemoDf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina Krenz\Documents\GitHub\MemorySemantization\data\pilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C792B600-B078-4704-8001-93E137499AE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE76006-CB94-4978-9DB1-FB13A96A9011}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{B6CFC090-043D-4D2D-B686-9576DD5CCD69}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>datebirth</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">male </t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,19 +555,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>32473</v>
@@ -587,10 +587,10 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
         <v>35602</v>
@@ -610,10 +610,10 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,10 +621,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>34921</v>
@@ -633,10 +633,10 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
         <v>36075</v>
@@ -656,10 +656,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>35364</v>
@@ -679,10 +679,10 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
         <v>32105</v>
@@ -702,10 +702,10 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>35849</v>
@@ -725,10 +725,10 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,10 +736,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>36101</v>
@@ -748,10 +748,10 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,10 +759,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2">
         <v>33785</v>
@@ -771,10 +771,10 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,10 +782,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
         <v>33324</v>
@@ -794,10 +794,10 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -805,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2">
         <v>36049</v>
@@ -817,10 +817,10 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2">
         <v>36497</v>
@@ -840,10 +840,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,10 +851,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2">
         <v>35041</v>
@@ -863,10 +863,10 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2">
         <v>36098</v>
@@ -886,10 +886,10 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2">
         <v>36387</v>
@@ -909,10 +909,10 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2">
         <v>33507</v>
@@ -932,10 +932,10 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2">
         <v>35993</v>
@@ -955,10 +955,10 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2">
         <v>35913</v>
@@ -978,10 +978,10 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>34694</v>
@@ -1001,10 +1001,10 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,10 +1012,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2">
         <v>34537</v>
@@ -1024,10 +1024,10 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2">
         <v>34930</v>
@@ -1047,10 +1047,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,10 +1058,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2">
         <v>35094</v>
@@ -1070,10 +1070,10 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2">
         <v>34408</v>
@@ -1093,10 +1093,10 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,10 +1104,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2">
         <v>35889</v>
@@ -1116,10 +1116,10 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,10 +1127,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2">
         <v>35935</v>
@@ -1139,10 +1139,10 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1150,10 +1150,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2">
         <v>32744</v>
@@ -1162,10 +1162,10 @@
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,10 +1173,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2">
         <v>34778</v>
@@ -1185,10 +1185,10 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,10 +1196,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2">
         <v>33324</v>
@@ -1208,10 +1208,10 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1219,10 +1219,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2">
         <v>35652</v>
@@ -1231,10 +1231,10 @@
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,10 +1242,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2">
         <v>35726</v>
@@ -1254,10 +1254,10 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,10 +1265,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2">
         <v>36653</v>
@@ -1277,10 +1277,10 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,10 +1288,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2">
         <v>36638</v>
@@ -1300,10 +1300,10 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,10 +1311,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2">
         <v>36018</v>
@@ -1323,10 +1323,10 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
